--- a/data/pca/factorExposure/factorExposure_2012-06-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-06-01.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01699415379043736</v>
+        <v>-0.02144490745845004</v>
       </c>
       <c r="C2">
-        <v>-0.03337342701407483</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.02642321503746303</v>
+      </c>
+      <c r="D2">
+        <v>0.003614753046377485</v>
+      </c>
+      <c r="E2">
+        <v>-0.02970417329128003</v>
+      </c>
+      <c r="F2">
+        <v>-0.008389295600264324</v>
+      </c>
+      <c r="G2">
+        <v>0.01074161782279811</v>
+      </c>
+      <c r="H2">
+        <v>0.0561052192759551</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07008315849892581</v>
+        <v>-0.07955142431163895</v>
       </c>
       <c r="C4">
-        <v>-0.06134904261860774</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.04070700130373341</v>
+      </c>
+      <c r="D4">
+        <v>-0.07020717461445199</v>
+      </c>
+      <c r="E4">
+        <v>-0.002061128042121679</v>
+      </c>
+      <c r="F4">
+        <v>-0.03385408904005495</v>
+      </c>
+      <c r="G4">
+        <v>-0.004088621308643061</v>
+      </c>
+      <c r="H4">
+        <v>-0.0220911103465893</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.09898886903525637</v>
+        <v>-0.1155156352451274</v>
       </c>
       <c r="C6">
-        <v>-0.06696314397279404</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.04243343693074002</v>
+      </c>
+      <c r="D6">
+        <v>-0.01412053353701971</v>
+      </c>
+      <c r="E6">
+        <v>0.006628439072458241</v>
+      </c>
+      <c r="F6">
+        <v>-0.04944882538488168</v>
+      </c>
+      <c r="G6">
+        <v>0.01072817903129976</v>
+      </c>
+      <c r="H6">
+        <v>0.06152603990519215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04732927943022953</v>
+        <v>-0.05802036246031819</v>
       </c>
       <c r="C7">
-        <v>-0.03496647919127756</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.02448014580158164</v>
+      </c>
+      <c r="D7">
+        <v>-0.03682968239325516</v>
+      </c>
+      <c r="E7">
+        <v>-0.01994763897437639</v>
+      </c>
+      <c r="F7">
+        <v>-0.03679393278663562</v>
+      </c>
+      <c r="G7">
+        <v>-0.04643514833187012</v>
+      </c>
+      <c r="H7">
+        <v>-0.02271314577696892</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03672917614875049</v>
+        <v>-0.03907523878145525</v>
       </c>
       <c r="C8">
-        <v>-0.02617486495941564</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.01402462282331292</v>
+      </c>
+      <c r="D8">
+        <v>-0.04056101382645386</v>
+      </c>
+      <c r="E8">
+        <v>-0.005605857360116581</v>
+      </c>
+      <c r="F8">
+        <v>-0.05081356139059476</v>
+      </c>
+      <c r="G8">
+        <v>0.02489067976102206</v>
+      </c>
+      <c r="H8">
+        <v>0.02206108932701474</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06412140902854403</v>
+        <v>-0.07351112592285702</v>
       </c>
       <c r="C9">
-        <v>-0.04887838447254286</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.0299549051897599</v>
+      </c>
+      <c r="D9">
+        <v>-0.06726235471619181</v>
+      </c>
+      <c r="E9">
+        <v>-0.01942237860291348</v>
+      </c>
+      <c r="F9">
+        <v>-0.04116264110556382</v>
+      </c>
+      <c r="G9">
+        <v>-0.005417643574293972</v>
+      </c>
+      <c r="H9">
+        <v>-0.04862085723969162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02891628020046855</v>
+        <v>-0.03965905450392856</v>
       </c>
       <c r="C10">
-        <v>-0.03585257315029976</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.03860102405404077</v>
+      </c>
+      <c r="D10">
+        <v>0.1799553989862491</v>
+      </c>
+      <c r="E10">
+        <v>-0.04714861234543052</v>
+      </c>
+      <c r="F10">
+        <v>-0.03764734149870855</v>
+      </c>
+      <c r="G10">
+        <v>-0.04029843901666994</v>
+      </c>
+      <c r="H10">
+        <v>0.02735572644854057</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.06737475189546611</v>
+        <v>-0.07559979801095978</v>
       </c>
       <c r="C11">
-        <v>-0.05044294648767724</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.02925952075471567</v>
+      </c>
+      <c r="D11">
+        <v>-0.0674792626532052</v>
+      </c>
+      <c r="E11">
+        <v>0.01048715525053447</v>
+      </c>
+      <c r="F11">
+        <v>-0.03386892120216877</v>
+      </c>
+      <c r="G11">
+        <v>-0.02081243970863243</v>
+      </c>
+      <c r="H11">
+        <v>-0.08461813419035542</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05252918050175327</v>
+        <v>-0.06381448240090569</v>
       </c>
       <c r="C12">
-        <v>-0.05102575431163726</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.03530524398964009</v>
+      </c>
+      <c r="D12">
+        <v>-0.05245340531883777</v>
+      </c>
+      <c r="E12">
+        <v>-0.0090400725845723</v>
+      </c>
+      <c r="F12">
+        <v>-0.03053764831285197</v>
+      </c>
+      <c r="G12">
+        <v>-0.0161407022092531</v>
+      </c>
+      <c r="H12">
+        <v>-0.0430368369095421</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.05931052158705011</v>
+        <v>-0.06534754717246462</v>
       </c>
       <c r="C13">
-        <v>-0.05112807555241458</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.03052340246044973</v>
+      </c>
+      <c r="D13">
+        <v>-0.04791779700481362</v>
+      </c>
+      <c r="E13">
+        <v>-0.007987037528306734</v>
+      </c>
+      <c r="F13">
+        <v>-0.01678186116319661</v>
+      </c>
+      <c r="G13">
+        <v>-0.004383989350091996</v>
+      </c>
+      <c r="H13">
+        <v>-0.06392705165359769</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.0310556239061869</v>
+        <v>-0.03906919827996252</v>
       </c>
       <c r="C14">
-        <v>-0.03022036085138726</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.02327775245481892</v>
+      </c>
+      <c r="D14">
+        <v>-0.008760647348580489</v>
+      </c>
+      <c r="E14">
+        <v>-0.01803725039182111</v>
+      </c>
+      <c r="F14">
+        <v>-0.01883723403445451</v>
+      </c>
+      <c r="G14">
+        <v>0.001524422761120588</v>
+      </c>
+      <c r="H14">
+        <v>-0.05569452596121413</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.04039872932333299</v>
+        <v>-0.04164398052601739</v>
       </c>
       <c r="C15">
-        <v>-0.01290132015682497</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.002387185185177255</v>
+      </c>
+      <c r="D15">
+        <v>-0.01511457883661844</v>
+      </c>
+      <c r="E15">
+        <v>-0.03988354605672929</v>
+      </c>
+      <c r="F15">
+        <v>-0.003568815939975933</v>
+      </c>
+      <c r="G15">
+        <v>0.01925886634331308</v>
+      </c>
+      <c r="H15">
+        <v>-0.06114846499358203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.0565043318038353</v>
+        <v>-0.06399657795797259</v>
       </c>
       <c r="C16">
-        <v>-0.04404857736509893</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.02717842359922829</v>
+      </c>
+      <c r="D16">
+        <v>-0.06096698198177694</v>
+      </c>
+      <c r="E16">
+        <v>0.0006614549458061905</v>
+      </c>
+      <c r="F16">
+        <v>-0.03054098384846923</v>
+      </c>
+      <c r="G16">
+        <v>-0.009555908620627355</v>
+      </c>
+      <c r="H16">
+        <v>-0.04839377711513378</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06160272181496224</v>
+        <v>-0.06171501668471305</v>
       </c>
       <c r="C20">
-        <v>-0.03714059564330151</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.0162067231341935</v>
+      </c>
+      <c r="D20">
+        <v>-0.0496073097314681</v>
+      </c>
+      <c r="E20">
+        <v>-0.01578692087452445</v>
+      </c>
+      <c r="F20">
+        <v>-0.02701266912151915</v>
+      </c>
+      <c r="G20">
+        <v>-0.009347955921038795</v>
+      </c>
+      <c r="H20">
+        <v>-0.03869035865656457</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0242808864129157</v>
+        <v>-0.02412933270827044</v>
       </c>
       <c r="C21">
-        <v>0.002496538341028849</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.009749010550426974</v>
+      </c>
+      <c r="D21">
+        <v>-0.03313748447350315</v>
+      </c>
+      <c r="E21">
+        <v>-0.08158098826495486</v>
+      </c>
+      <c r="F21">
+        <v>-0.001580697141034889</v>
+      </c>
+      <c r="G21">
+        <v>0.007170628966527173</v>
+      </c>
+      <c r="H21">
+        <v>0.01767911322888482</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.06889415586505435</v>
+        <v>-0.06395088324817695</v>
       </c>
       <c r="C22">
-        <v>-0.06950612842627875</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.03969254862665313</v>
+      </c>
+      <c r="D22">
+        <v>-0.1009345333049296</v>
+      </c>
+      <c r="E22">
+        <v>-0.6149606590633212</v>
+      </c>
+      <c r="F22">
+        <v>0.1213402510856944</v>
+      </c>
+      <c r="G22">
+        <v>-0.01860788864904888</v>
+      </c>
+      <c r="H22">
+        <v>0.111581893748047</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.0700818148030016</v>
+        <v>-0.06441282566691639</v>
       </c>
       <c r="C23">
-        <v>-0.06891548365589685</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.0385995600145112</v>
+      </c>
+      <c r="D23">
+        <v>-0.1016029771359503</v>
+      </c>
+      <c r="E23">
+        <v>-0.6139828355447989</v>
+      </c>
+      <c r="F23">
+        <v>0.120568102494891</v>
+      </c>
+      <c r="G23">
+        <v>-0.01733168055585093</v>
+      </c>
+      <c r="H23">
+        <v>0.1067799286514148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.06515424537542538</v>
+        <v>-0.07540186399624757</v>
       </c>
       <c r="C24">
-        <v>-0.05294774062599528</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.03291760989498473</v>
+      </c>
+      <c r="D24">
+        <v>-0.06447165563702573</v>
+      </c>
+      <c r="E24">
+        <v>-0.007200312365098425</v>
+      </c>
+      <c r="F24">
+        <v>-0.04197495146442169</v>
+      </c>
+      <c r="G24">
+        <v>-0.007240382737441877</v>
+      </c>
+      <c r="H24">
+        <v>-0.05561458261163194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.06540626338100931</v>
+        <v>-0.07345605142178402</v>
       </c>
       <c r="C25">
-        <v>-0.05893653603737181</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.03755882864473491</v>
+      </c>
+      <c r="D25">
+        <v>-0.06293734107682536</v>
+      </c>
+      <c r="E25">
+        <v>-0.01041729043234474</v>
+      </c>
+      <c r="F25">
+        <v>-0.03816801810591731</v>
+      </c>
+      <c r="G25">
+        <v>0.003658850820836228</v>
+      </c>
+      <c r="H25">
+        <v>-0.06071494001603778</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.03892565434381541</v>
+        <v>-0.04179074300844968</v>
       </c>
       <c r="C26">
-        <v>-0.01462870050500636</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.005269268201213068</v>
+      </c>
+      <c r="D26">
+        <v>-0.02291199019351905</v>
+      </c>
+      <c r="E26">
+        <v>-0.03529684537688629</v>
+      </c>
+      <c r="F26">
+        <v>-0.02405495350222984</v>
+      </c>
+      <c r="G26">
+        <v>-0.01116407962184309</v>
+      </c>
+      <c r="H26">
+        <v>-0.05750623798975848</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05285762495370273</v>
+        <v>-0.07316325382894835</v>
       </c>
       <c r="C28">
-        <v>-0.07300110265652496</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.07493450862277493</v>
+      </c>
+      <c r="D28">
+        <v>0.3231695471672823</v>
+      </c>
+      <c r="E28">
+        <v>-0.03785008383411712</v>
+      </c>
+      <c r="F28">
+        <v>-0.05178039540962184</v>
+      </c>
+      <c r="G28">
+        <v>0.02446640868316719</v>
+      </c>
+      <c r="H28">
+        <v>-0.007077480313387638</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.03631859716925546</v>
+        <v>-0.04403297287154736</v>
       </c>
       <c r="C29">
-        <v>-0.02970601075103007</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.02263852269902985</v>
+      </c>
+      <c r="D29">
+        <v>-0.009418084267310705</v>
+      </c>
+      <c r="E29">
+        <v>-0.03937222966968727</v>
+      </c>
+      <c r="F29">
+        <v>-0.01616067875028917</v>
+      </c>
+      <c r="G29">
+        <v>-0.01537797111171435</v>
+      </c>
+      <c r="H29">
+        <v>-0.08572748050820996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1154945663462753</v>
+        <v>-0.132258065606119</v>
       </c>
       <c r="C30">
-        <v>-0.09961100924687324</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.06412665215008519</v>
+      </c>
+      <c r="D30">
+        <v>-0.09333575128251849</v>
+      </c>
+      <c r="E30">
+        <v>-0.04398292415544387</v>
+      </c>
+      <c r="F30">
+        <v>-0.01999078010669186</v>
+      </c>
+      <c r="G30">
+        <v>0.02353258190996461</v>
+      </c>
+      <c r="H30">
+        <v>0.04490435794164782</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03781330954529426</v>
+        <v>-0.04381850468143234</v>
       </c>
       <c r="C31">
-        <v>-0.02390958365349834</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01398458018506268</v>
+      </c>
+      <c r="D31">
+        <v>-0.02788246977180642</v>
+      </c>
+      <c r="E31">
+        <v>-0.02168391532335881</v>
+      </c>
+      <c r="F31">
+        <v>-0.014056683750229</v>
+      </c>
+      <c r="G31">
+        <v>-0.02410620318687665</v>
+      </c>
+      <c r="H31">
+        <v>-0.06411666396022664</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03363748400275968</v>
+        <v>-0.03306598560620586</v>
       </c>
       <c r="C32">
-        <v>-0.02214951697507279</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.012491400917703</v>
+      </c>
+      <c r="D32">
+        <v>-0.0131695449843649</v>
+      </c>
+      <c r="E32">
+        <v>-0.06728147880588765</v>
+      </c>
+      <c r="F32">
+        <v>0.0003433490197088229</v>
+      </c>
+      <c r="G32">
+        <v>0.02967410635537642</v>
+      </c>
+      <c r="H32">
+        <v>-0.02880565760100759</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.07498832482420444</v>
+        <v>-0.08831813371644479</v>
       </c>
       <c r="C33">
-        <v>-0.05170640483353903</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.0315445739251185</v>
+      </c>
+      <c r="D33">
+        <v>-0.06119461092607706</v>
+      </c>
+      <c r="E33">
+        <v>-0.01354630986609281</v>
+      </c>
+      <c r="F33">
+        <v>-0.00992866574826165</v>
+      </c>
+      <c r="G33">
+        <v>-0.01901556796810477</v>
+      </c>
+      <c r="H33">
+        <v>-0.05438827178922728</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05192446211217633</v>
+        <v>-0.05829145830359127</v>
       </c>
       <c r="C34">
-        <v>-0.03323673937357116</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01698598738443789</v>
+      </c>
+      <c r="D34">
+        <v>-0.05926104364619727</v>
+      </c>
+      <c r="E34">
+        <v>-0.00128020753646119</v>
+      </c>
+      <c r="F34">
+        <v>-0.02511672794747454</v>
+      </c>
+      <c r="G34">
+        <v>-0.004074224536653563</v>
+      </c>
+      <c r="H34">
+        <v>-0.03982163603697857</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03562970910815155</v>
+        <v>-0.04040677160118839</v>
       </c>
       <c r="C35">
-        <v>-0.0122166065780793</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.004630947703667177</v>
+      </c>
+      <c r="D35">
+        <v>-0.01540081536094567</v>
+      </c>
+      <c r="E35">
+        <v>-0.02185541821633789</v>
+      </c>
+      <c r="F35">
+        <v>-0.002222429334730998</v>
+      </c>
+      <c r="G35">
+        <v>-0.01303883377272257</v>
+      </c>
+      <c r="H35">
+        <v>-0.03659070567247315</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.0179429686405674</v>
+        <v>-0.02494864157515441</v>
       </c>
       <c r="C36">
-        <v>-0.01700079036382194</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.012834647960729</v>
+      </c>
+      <c r="D36">
+        <v>-0.02042629412262903</v>
+      </c>
+      <c r="E36">
+        <v>-0.03813966802088215</v>
+      </c>
+      <c r="F36">
+        <v>-0.0216894223237836</v>
+      </c>
+      <c r="G36">
+        <v>-0.01657791173450082</v>
+      </c>
+      <c r="H36">
+        <v>-0.05126667370513663</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.03799095141442255</v>
+        <v>-0.04085495244065947</v>
       </c>
       <c r="C38">
-        <v>-0.01015002189538732</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.002735466039209455</v>
+      </c>
+      <c r="D38">
+        <v>-0.01382855436553331</v>
+      </c>
+      <c r="E38">
+        <v>-0.06134543798898422</v>
+      </c>
+      <c r="F38">
+        <v>0.01558464434333765</v>
+      </c>
+      <c r="G38">
+        <v>0.01757496373343772</v>
+      </c>
+      <c r="H38">
+        <v>-0.03365542854255325</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.08734087627259216</v>
+        <v>-0.1013702851171284</v>
       </c>
       <c r="C39">
-        <v>-0.08263410408163505</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.05416633634533057</v>
+      </c>
+      <c r="D39">
+        <v>-0.08371511000825957</v>
+      </c>
+      <c r="E39">
+        <v>0.01175351704466346</v>
+      </c>
+      <c r="F39">
+        <v>-0.02119112840076534</v>
+      </c>
+      <c r="G39">
+        <v>0.01864492804165037</v>
+      </c>
+      <c r="H39">
+        <v>-0.0450758772664469</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.06705403046344301</v>
+        <v>-0.07068265728816807</v>
       </c>
       <c r="C40">
-        <v>-0.0566798867342578</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.03362846687491555</v>
+      </c>
+      <c r="D40">
+        <v>-0.01157798983366957</v>
+      </c>
+      <c r="E40">
+        <v>-0.02716141117093984</v>
+      </c>
+      <c r="F40">
+        <v>0.05095214791297368</v>
+      </c>
+      <c r="G40">
+        <v>0.07588241060160555</v>
+      </c>
+      <c r="H40">
+        <v>0.09742085284532599</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.03885116215700731</v>
+        <v>-0.04302159372582615</v>
       </c>
       <c r="C41">
-        <v>-0.01438740189244542</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.005235941696442071</v>
+      </c>
+      <c r="D41">
+        <v>-0.04020173163867222</v>
+      </c>
+      <c r="E41">
+        <v>-0.007100432266994527</v>
+      </c>
+      <c r="F41">
+        <v>0.004974191141716541</v>
+      </c>
+      <c r="G41">
+        <v>0.009368110540381213</v>
+      </c>
+      <c r="H41">
+        <v>-0.0403922555798631</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.04345947015598539</v>
+        <v>-0.0523367778501684</v>
       </c>
       <c r="C43">
-        <v>-0.03323279922483127</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.02063617092023697</v>
+      </c>
+      <c r="D43">
+        <v>-0.02952367551473913</v>
+      </c>
+      <c r="E43">
+        <v>-0.01774925725397523</v>
+      </c>
+      <c r="F43">
+        <v>-0.0165582619232369</v>
+      </c>
+      <c r="G43">
+        <v>-0.009416634567159935</v>
+      </c>
+      <c r="H43">
+        <v>-0.04972279292165138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.08969557212730128</v>
+        <v>-0.09169250927021955</v>
       </c>
       <c r="C44">
-        <v>-0.09505807492350142</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.0618805518233599</v>
+      </c>
+      <c r="D44">
+        <v>-0.05743161923080742</v>
+      </c>
+      <c r="E44">
+        <v>-0.09491440250960892</v>
+      </c>
+      <c r="F44">
+        <v>-0.05885288430049715</v>
+      </c>
+      <c r="G44">
+        <v>0.02484462840323227</v>
+      </c>
+      <c r="H44">
+        <v>0.07343899981548029</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02717002822695198</v>
+        <v>-0.02849130355874263</v>
       </c>
       <c r="C46">
-        <v>-0.01856325040205523</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.009711484366816174</v>
+      </c>
+      <c r="D46">
+        <v>-0.03469351249050741</v>
+      </c>
+      <c r="E46">
+        <v>-0.01759511535992211</v>
+      </c>
+      <c r="F46">
+        <v>-0.01942998122570554</v>
+      </c>
+      <c r="G46">
+        <v>0.0002495600029306435</v>
+      </c>
+      <c r="H46">
+        <v>-0.04564415179428191</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.02728096654553822</v>
+        <v>-0.02977682239452647</v>
       </c>
       <c r="C47">
-        <v>-0.02098818439624547</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.0126062556648292</v>
+      </c>
+      <c r="D47">
+        <v>-0.01751739886648665</v>
+      </c>
+      <c r="E47">
+        <v>-0.047365709557021</v>
+      </c>
+      <c r="F47">
+        <v>-0.0138030684530245</v>
+      </c>
+      <c r="G47">
+        <v>-0.03408872946775099</v>
+      </c>
+      <c r="H47">
+        <v>-0.03914014070813323</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02835438769736599</v>
+        <v>-0.03276347421193882</v>
       </c>
       <c r="C48">
-        <v>-0.02032595015618037</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.01194557880036047</v>
+      </c>
+      <c r="D48">
+        <v>-0.03289665608037452</v>
+      </c>
+      <c r="E48">
+        <v>-0.0418992335418982</v>
+      </c>
+      <c r="F48">
+        <v>-0.01576536161258654</v>
+      </c>
+      <c r="G48">
+        <v>0.002456029351320458</v>
+      </c>
+      <c r="H48">
+        <v>-0.0522062748408421</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1494731574589493</v>
+        <v>-0.1787457465991669</v>
       </c>
       <c r="C49">
-        <v>-0.09095580962248391</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.05481865736403368</v>
+      </c>
+      <c r="D49">
+        <v>-0.01975860722753621</v>
+      </c>
+      <c r="E49">
+        <v>0.1296221470775858</v>
+      </c>
+      <c r="F49">
+        <v>-0.02545300261691885</v>
+      </c>
+      <c r="G49">
+        <v>-0.04195205814315014</v>
+      </c>
+      <c r="H49">
+        <v>0.2703697728415442</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03427634578244555</v>
+        <v>-0.04303464264089917</v>
       </c>
       <c r="C50">
-        <v>-0.02795947640624425</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.02093943421236743</v>
+      </c>
+      <c r="D50">
+        <v>-0.03761634235784362</v>
+      </c>
+      <c r="E50">
+        <v>-0.04610985029658705</v>
+      </c>
+      <c r="F50">
+        <v>-0.02672187654263958</v>
+      </c>
+      <c r="G50">
+        <v>-0.02227776992229859</v>
+      </c>
+      <c r="H50">
+        <v>-0.07100487692443905</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02528332001945409</v>
+        <v>-0.02736419738517117</v>
       </c>
       <c r="C51">
-        <v>-0.01561151216411056</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.00911297816528903</v>
+      </c>
+      <c r="D51">
+        <v>-0.02585973818734615</v>
+      </c>
+      <c r="E51">
+        <v>-0.01728255665858856</v>
+      </c>
+      <c r="F51">
+        <v>-0.01396595905993987</v>
+      </c>
+      <c r="G51">
+        <v>0.002825415379951164</v>
+      </c>
+      <c r="H51">
+        <v>-0.01620076117302461</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1383200988771175</v>
+        <v>-0.1580827012785734</v>
       </c>
       <c r="C53">
-        <v>-0.09673190930865264</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.06483008031323302</v>
+      </c>
+      <c r="D53">
+        <v>-0.02199649270592237</v>
+      </c>
+      <c r="E53">
+        <v>0.04132917195028787</v>
+      </c>
+      <c r="F53">
+        <v>-0.0153248870442325</v>
+      </c>
+      <c r="G53">
+        <v>-0.001831620094639145</v>
+      </c>
+      <c r="H53">
+        <v>-0.1507745225315598</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.0515270026418987</v>
+        <v>-0.05530372887090949</v>
       </c>
       <c r="C54">
-        <v>-0.02898583399933696</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01361215603296122</v>
+      </c>
+      <c r="D54">
+        <v>-0.03395469487495281</v>
+      </c>
+      <c r="E54">
+        <v>-0.04806319058825383</v>
+      </c>
+      <c r="F54">
+        <v>-0.01949519161095359</v>
+      </c>
+      <c r="G54">
+        <v>0.0002481329303133157</v>
+      </c>
+      <c r="H54">
+        <v>-0.05983231480085628</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09187060211087464</v>
+        <v>-0.09907348912891717</v>
       </c>
       <c r="C55">
-        <v>-0.06146512120326274</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.03866208341818007</v>
+      </c>
+      <c r="D55">
+        <v>-0.03128209470871265</v>
+      </c>
+      <c r="E55">
+        <v>-0.006202765437334776</v>
+      </c>
+      <c r="F55">
+        <v>-0.02094777617014834</v>
+      </c>
+      <c r="G55">
+        <v>-0.002868106980843476</v>
+      </c>
+      <c r="H55">
+        <v>-0.1367480526091012</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.139131205982373</v>
+        <v>-0.1583569679792296</v>
       </c>
       <c r="C56">
-        <v>-0.1093659294195182</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.07393164051977631</v>
+      </c>
+      <c r="D56">
+        <v>-0.01977446811775531</v>
+      </c>
+      <c r="E56">
+        <v>0.04077289074135344</v>
+      </c>
+      <c r="F56">
+        <v>-0.04651230613306095</v>
+      </c>
+      <c r="G56">
+        <v>-0.01446505669368475</v>
+      </c>
+      <c r="H56">
+        <v>-0.1547814780080234</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1153949241431558</v>
+        <v>-0.1001634997196843</v>
       </c>
       <c r="C58">
-        <v>-0.02668561024795345</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.01451756263758902</v>
+      </c>
+      <c r="D58">
+        <v>-0.05992579752558311</v>
+      </c>
+      <c r="E58">
+        <v>-0.184345661156536</v>
+      </c>
+      <c r="F58">
+        <v>-0.02089095633420969</v>
+      </c>
+      <c r="G58">
+        <v>-0.05120188809983458</v>
+      </c>
+      <c r="H58">
+        <v>0.1916474950693751</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.109007487108146</v>
+        <v>-0.1469586968816965</v>
       </c>
       <c r="C59">
-        <v>-0.08427037052288468</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.08407746207988255</v>
+      </c>
+      <c r="D59">
+        <v>0.3532418311278384</v>
+      </c>
+      <c r="E59">
+        <v>-0.04748804585248712</v>
+      </c>
+      <c r="F59">
+        <v>0.01681778166698849</v>
+      </c>
+      <c r="G59">
+        <v>-0.03908914712827463</v>
+      </c>
+      <c r="H59">
+        <v>-0.01162039279094707</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1865221656410765</v>
+        <v>-0.2190007556348481</v>
       </c>
       <c r="C60">
-        <v>-0.1178621742411773</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.07653825160174603</v>
+      </c>
+      <c r="D60">
+        <v>-0.01802909374786192</v>
+      </c>
+      <c r="E60">
+        <v>0.07378183033421204</v>
+      </c>
+      <c r="F60">
+        <v>-0.04090892735049013</v>
+      </c>
+      <c r="G60">
+        <v>0.02205404257658413</v>
+      </c>
+      <c r="H60">
+        <v>0.1712743649048409</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07530531673514272</v>
+        <v>-0.08492746129380011</v>
       </c>
       <c r="C61">
-        <v>-0.06249103088995924</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.03976390328002094</v>
+      </c>
+      <c r="D61">
+        <v>-0.06205626921727481</v>
+      </c>
+      <c r="E61">
+        <v>0.01694460056371998</v>
+      </c>
+      <c r="F61">
+        <v>-0.008899000697542859</v>
+      </c>
+      <c r="G61">
+        <v>-0.01434747328065534</v>
+      </c>
+      <c r="H61">
+        <v>-0.07020973354013012</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1182682121231992</v>
+        <v>-0.1384671707046956</v>
       </c>
       <c r="C62">
-        <v>-0.08221410208024854</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.05466329256504574</v>
+      </c>
+      <c r="D62">
+        <v>-0.02358751963458001</v>
+      </c>
+      <c r="E62">
+        <v>0.05582390906470835</v>
+      </c>
+      <c r="F62">
+        <v>-0.01967366769414413</v>
+      </c>
+      <c r="G62">
+        <v>0.02832394649900322</v>
+      </c>
+      <c r="H62">
+        <v>-0.1479687658949716</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.0507532570178169</v>
+        <v>-0.05149479203898442</v>
       </c>
       <c r="C63">
-        <v>-0.03225495124065026</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.01690021813528333</v>
+      </c>
+      <c r="D63">
+        <v>-0.03229020590225135</v>
+      </c>
+      <c r="E63">
+        <v>-0.04728795717853305</v>
+      </c>
+      <c r="F63">
+        <v>-0.01261181451013596</v>
+      </c>
+      <c r="G63">
+        <v>0.02972366312876261</v>
+      </c>
+      <c r="H63">
+        <v>-0.08429584275081327</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1072496634563512</v>
+        <v>-0.1122286341674846</v>
       </c>
       <c r="C64">
-        <v>-0.04276613461110179</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.01314588143687704</v>
+      </c>
+      <c r="D64">
+        <v>-0.04689727962112959</v>
+      </c>
+      <c r="E64">
+        <v>-0.02463000157698101</v>
+      </c>
+      <c r="F64">
+        <v>-0.05749676992731394</v>
+      </c>
+      <c r="G64">
+        <v>0.02148990718777553</v>
+      </c>
+      <c r="H64">
+        <v>-0.07753077841660579</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1115253498235819</v>
+        <v>-0.1245759402259824</v>
       </c>
       <c r="C65">
-        <v>-0.06607581691599899</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.03979841486748018</v>
+      </c>
+      <c r="D65">
+        <v>-0.01152622342032221</v>
+      </c>
+      <c r="E65">
+        <v>0.001189651373897721</v>
+      </c>
+      <c r="F65">
+        <v>-0.06307344755535664</v>
+      </c>
+      <c r="G65">
+        <v>0.03226124919497313</v>
+      </c>
+      <c r="H65">
+        <v>0.0811097406606351</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.134530832755177</v>
+        <v>-0.1526941851412065</v>
       </c>
       <c r="C66">
-        <v>-0.09338075081258122</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.05492091232352656</v>
+      </c>
+      <c r="D66">
+        <v>-0.1191271980692902</v>
+      </c>
+      <c r="E66">
+        <v>0.0548116881295805</v>
+      </c>
+      <c r="F66">
+        <v>-0.03983140358362174</v>
+      </c>
+      <c r="G66">
+        <v>0.02203180680401397</v>
+      </c>
+      <c r="H66">
+        <v>-0.114715837743423</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07018047949405827</v>
+        <v>-0.0759626061504577</v>
       </c>
       <c r="C67">
-        <v>-0.02247237942691574</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.007738793994612798</v>
+      </c>
+      <c r="D67">
+        <v>-0.02530447444288495</v>
+      </c>
+      <c r="E67">
+        <v>-0.02731322474130403</v>
+      </c>
+      <c r="F67">
+        <v>-0.004320204706617987</v>
+      </c>
+      <c r="G67">
+        <v>-0.003584847258138982</v>
+      </c>
+      <c r="H67">
+        <v>-0.02835658171088932</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05474067013689324</v>
+        <v>-0.06830138878957973</v>
       </c>
       <c r="C68">
-        <v>-0.04963258236631444</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.0505872064800473</v>
+      </c>
+      <c r="D68">
+        <v>0.2667019540834673</v>
+      </c>
+      <c r="E68">
+        <v>-0.05152930540044379</v>
+      </c>
+      <c r="F68">
+        <v>-0.01023264076264488</v>
+      </c>
+      <c r="G68">
+        <v>-0.008824066519862481</v>
+      </c>
+      <c r="H68">
+        <v>-0.02370075265558848</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.04961038338477494</v>
+        <v>-0.04955022882392565</v>
       </c>
       <c r="C69">
-        <v>-0.0253452033910139</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.008440126302781436</v>
+      </c>
+      <c r="D69">
+        <v>-0.03338947918438455</v>
+      </c>
+      <c r="E69">
+        <v>-0.02089724726204971</v>
+      </c>
+      <c r="F69">
+        <v>0.002170721159019067</v>
+      </c>
+      <c r="G69">
+        <v>-0.00644365365759578</v>
+      </c>
+      <c r="H69">
+        <v>-0.0676061962793979</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.004325075823662742</v>
+        <v>-0.01662109033212755</v>
       </c>
       <c r="C70">
-        <v>0.003658836044919539</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.0004553230953058531</v>
+      </c>
+      <c r="D70">
+        <v>0.00779793434938991</v>
+      </c>
+      <c r="E70">
+        <v>0.02058222277877596</v>
+      </c>
+      <c r="F70">
+        <v>-0.01342318238658907</v>
+      </c>
+      <c r="G70">
+        <v>-0.01818406662214239</v>
+      </c>
+      <c r="H70">
+        <v>0.04643892382013592</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.05710484753907676</v>
+        <v>-0.07199510257054181</v>
       </c>
       <c r="C71">
-        <v>-0.04685056479373177</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.04886878543574173</v>
+      </c>
+      <c r="D71">
+        <v>0.2994152715458703</v>
+      </c>
+      <c r="E71">
+        <v>-0.0468848085348316</v>
+      </c>
+      <c r="F71">
+        <v>-0.03671023187126853</v>
+      </c>
+      <c r="G71">
+        <v>-0.007541274782920736</v>
+      </c>
+      <c r="H71">
+        <v>-0.008620560381776195</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1326353228036852</v>
+        <v>-0.1543232850357378</v>
       </c>
       <c r="C72">
-        <v>-0.07390040461754703</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.04368701564590544</v>
+      </c>
+      <c r="D72">
+        <v>-0.006347197621985882</v>
+      </c>
+      <c r="E72">
+        <v>0.09004764101471092</v>
+      </c>
+      <c r="F72">
+        <v>0.1605670223781016</v>
+      </c>
+      <c r="G72">
+        <v>0.1190621359918978</v>
+      </c>
+      <c r="H72">
+        <v>-0.02131421539823511</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2480960233250725</v>
+        <v>-0.2774792003261679</v>
       </c>
       <c r="C73">
-        <v>-0.1429833106334002</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.07788605355585737</v>
+      </c>
+      <c r="D73">
+        <v>-0.07322262514356405</v>
+      </c>
+      <c r="E73">
+        <v>0.183808166887263</v>
+      </c>
+      <c r="F73">
+        <v>-0.06809213001880914</v>
+      </c>
+      <c r="G73">
+        <v>-0.1743601870770998</v>
+      </c>
+      <c r="H73">
+        <v>0.5961218856277336</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07362075937032679</v>
+        <v>-0.0888146678177527</v>
       </c>
       <c r="C74">
-        <v>-0.0836458419064082</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.06240022466007373</v>
+      </c>
+      <c r="D74">
+        <v>-0.0341566957696364</v>
+      </c>
+      <c r="E74">
+        <v>0.006715502526271359</v>
+      </c>
+      <c r="F74">
+        <v>0.01062705232777866</v>
+      </c>
+      <c r="G74">
+        <v>-0.03473899567084752</v>
+      </c>
+      <c r="H74">
+        <v>-0.1331988916287954</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09414958860992316</v>
+        <v>-0.1028754879340842</v>
       </c>
       <c r="C75">
-        <v>-0.06266013137528809</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.03311363221448711</v>
+      </c>
+      <c r="D75">
+        <v>-0.0157449260500664</v>
+      </c>
+      <c r="E75">
+        <v>0.002496148617936823</v>
+      </c>
+      <c r="F75">
+        <v>-0.0521785079031136</v>
+      </c>
+      <c r="G75">
+        <v>-0.01969126391833045</v>
+      </c>
+      <c r="H75">
+        <v>-0.1201410389375785</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.117081695244146</v>
+        <v>-0.1331688469367039</v>
       </c>
       <c r="C76">
-        <v>-0.09668997733970289</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.06583007088290342</v>
+      </c>
+      <c r="D76">
+        <v>-0.053318733349921</v>
+      </c>
+      <c r="E76">
+        <v>-0.009516777395921926</v>
+      </c>
+      <c r="F76">
+        <v>-0.0630693183138589</v>
+      </c>
+      <c r="G76">
+        <v>-0.009091620121598306</v>
+      </c>
+      <c r="H76">
+        <v>-0.1599467618919897</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1157489553139071</v>
+        <v>-0.113007856471888</v>
       </c>
       <c r="C77">
-        <v>-0.05636111093683554</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.02007092799153758</v>
+      </c>
+      <c r="D77">
+        <v>-0.01274468739709646</v>
+      </c>
+      <c r="E77">
+        <v>0.007587797515145892</v>
+      </c>
+      <c r="F77">
+        <v>-0.2519170724419099</v>
+      </c>
+      <c r="G77">
+        <v>0.8821385135482152</v>
+      </c>
+      <c r="H77">
+        <v>0.1212395722020819</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.08729779095010562</v>
+        <v>-0.1098684278319713</v>
       </c>
       <c r="C78">
-        <v>-0.04755812303860993</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.02996178394099626</v>
+      </c>
+      <c r="D78">
+        <v>-0.07639288727817202</v>
+      </c>
+      <c r="E78">
+        <v>-0.06087330751873997</v>
+      </c>
+      <c r="F78">
+        <v>-0.01101307745446391</v>
+      </c>
+      <c r="G78">
+        <v>0.02894978417735772</v>
+      </c>
+      <c r="H78">
+        <v>0.1194359941059365</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1360670892305937</v>
+        <v>-0.1511272738622807</v>
       </c>
       <c r="C79">
-        <v>-0.1025862873427553</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.062813764313113</v>
+      </c>
+      <c r="D79">
+        <v>-0.03075608800098879</v>
+      </c>
+      <c r="E79">
+        <v>0.02648111429867126</v>
+      </c>
+      <c r="F79">
+        <v>-0.02846854206225413</v>
+      </c>
+      <c r="G79">
+        <v>-0.02110186262669474</v>
+      </c>
+      <c r="H79">
+        <v>-0.1468165174468462</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.0402553907672083</v>
+        <v>-0.03857332786499718</v>
       </c>
       <c r="C80">
-        <v>-0.01905286796221955</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.00650007771778408</v>
+      </c>
+      <c r="D80">
+        <v>-0.02950704377691828</v>
+      </c>
+      <c r="E80">
+        <v>0.005321918544196193</v>
+      </c>
+      <c r="F80">
+        <v>0.02666662184365434</v>
+      </c>
+      <c r="G80">
+        <v>-0.03464820156933592</v>
+      </c>
+      <c r="H80">
+        <v>-0.04500636287845204</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1097078072366609</v>
+        <v>-0.1194391419977658</v>
       </c>
       <c r="C81">
-        <v>-0.07672917849390898</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.04488498662298292</v>
+      </c>
+      <c r="D81">
+        <v>-0.03111657702436966</v>
+      </c>
+      <c r="E81">
+        <v>0.01077979911806711</v>
+      </c>
+      <c r="F81">
+        <v>-0.02683338383331355</v>
+      </c>
+      <c r="G81">
+        <v>-0.05710798969459794</v>
+      </c>
+      <c r="H81">
+        <v>-0.1710712860489308</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.117688648240905</v>
+        <v>-0.1277412120847228</v>
       </c>
       <c r="C82">
-        <v>-0.08797601465073975</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.05554625913154797</v>
+      </c>
+      <c r="D82">
+        <v>-0.0342866843925616</v>
+      </c>
+      <c r="E82">
+        <v>0.02589243650526826</v>
+      </c>
+      <c r="F82">
+        <v>-0.04986051296396834</v>
+      </c>
+      <c r="G82">
+        <v>-0.0507951462327991</v>
+      </c>
+      <c r="H82">
+        <v>-0.1763502173003828</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07307945369243253</v>
+        <v>-0.07489114706870202</v>
       </c>
       <c r="C83">
-        <v>-0.02136743355323923</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.002427814583603863</v>
+      </c>
+      <c r="D83">
+        <v>-0.04212726921658327</v>
+      </c>
+      <c r="E83">
+        <v>-0.01482805441971378</v>
+      </c>
+      <c r="F83">
+        <v>-0.006921436868400523</v>
+      </c>
+      <c r="G83">
+        <v>-0.08437183698105689</v>
+      </c>
+      <c r="H83">
+        <v>0.006554522503728091</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02377106811126768</v>
+        <v>-0.03440609478342523</v>
       </c>
       <c r="C84">
-        <v>-0.02830294559523677</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.02382231581763895</v>
+      </c>
+      <c r="D84">
+        <v>-0.02690003244771106</v>
+      </c>
+      <c r="E84">
+        <v>-0.01802707631921481</v>
+      </c>
+      <c r="F84">
+        <v>0.05388814295613333</v>
+      </c>
+      <c r="G84">
+        <v>-0.05744929976962233</v>
+      </c>
+      <c r="H84">
+        <v>-0.005264117134950187</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1141894564302013</v>
+        <v>-0.1178790154160923</v>
       </c>
       <c r="C85">
-        <v>-0.07349868790652708</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.03787586082447147</v>
+      </c>
+      <c r="D85">
+        <v>-0.03206637128351965</v>
+      </c>
+      <c r="E85">
+        <v>-0.002977091147429274</v>
+      </c>
+      <c r="F85">
+        <v>-0.07564697206932749</v>
+      </c>
+      <c r="G85">
+        <v>-0.02843593750888554</v>
+      </c>
+      <c r="H85">
+        <v>-0.1281421025250198</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.04648160385979465</v>
+        <v>-0.05017809837247676</v>
       </c>
       <c r="C86">
-        <v>-0.02510353485088467</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.01251648372898146</v>
+      </c>
+      <c r="D86">
+        <v>-0.01948750490588044</v>
+      </c>
+      <c r="E86">
+        <v>-0.05782410577548013</v>
+      </c>
+      <c r="F86">
+        <v>-0.02722782214458161</v>
+      </c>
+      <c r="G86">
+        <v>-0.008468461137476615</v>
+      </c>
+      <c r="H86">
+        <v>-0.006301958791501517</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1180767693082584</v>
+        <v>-0.1230079141856263</v>
       </c>
       <c r="C87">
-        <v>-0.08263436206228723</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.04290356250280976</v>
+      </c>
+      <c r="D87">
+        <v>-0.06821296441554024</v>
+      </c>
+      <c r="E87">
+        <v>-0.01454220922751126</v>
+      </c>
+      <c r="F87">
+        <v>-0.02680821040435638</v>
+      </c>
+      <c r="G87">
+        <v>0.1099055779772738</v>
+      </c>
+      <c r="H87">
+        <v>-0.002056468510731531</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05275660739264847</v>
+        <v>-0.05878482264364513</v>
       </c>
       <c r="C88">
-        <v>-0.03820166238041547</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.02319959980541447</v>
+      </c>
+      <c r="D88">
+        <v>-0.02558539066748108</v>
+      </c>
+      <c r="E88">
+        <v>-0.01999285254104086</v>
+      </c>
+      <c r="F88">
+        <v>-0.01305803835883932</v>
+      </c>
+      <c r="G88">
+        <v>0.0111126202038969</v>
+      </c>
+      <c r="H88">
+        <v>-0.0684854088089925</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.07714427091744443</v>
+        <v>-0.1040391230768668</v>
       </c>
       <c r="C89">
-        <v>-0.07192033660433361</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.07406869649324224</v>
+      </c>
+      <c r="D89">
+        <v>0.3313785434821495</v>
+      </c>
+      <c r="E89">
+        <v>-0.07764524822031074</v>
+      </c>
+      <c r="F89">
+        <v>-0.06501086371219414</v>
+      </c>
+      <c r="G89">
+        <v>-0.03065055912204212</v>
+      </c>
+      <c r="H89">
+        <v>0.00448417632317926</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.06842024410725382</v>
+        <v>-0.0878115694740705</v>
       </c>
       <c r="C90">
-        <v>-0.06102176443107762</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.06134862586523514</v>
+      </c>
+      <c r="D90">
+        <v>0.3068111404889812</v>
+      </c>
+      <c r="E90">
+        <v>-0.06431496665354326</v>
+      </c>
+      <c r="F90">
+        <v>0.0144442065431133</v>
+      </c>
+      <c r="G90">
+        <v>-0.007583001103249978</v>
+      </c>
+      <c r="H90">
+        <v>-0.02611936956313784</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.07774937729364145</v>
+        <v>-0.08711850237253722</v>
       </c>
       <c r="C91">
-        <v>-0.0648154073444014</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.04208293262886862</v>
+      </c>
+      <c r="D91">
+        <v>-0.02585607924884643</v>
+      </c>
+      <c r="E91">
+        <v>-0.01218261374512527</v>
+      </c>
+      <c r="F91">
+        <v>-0.009355011033586876</v>
+      </c>
+      <c r="G91">
+        <v>-0.04221915447629847</v>
+      </c>
+      <c r="H91">
+        <v>-0.08774588530534944</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.08061190587072267</v>
+        <v>-0.1008807114197169</v>
       </c>
       <c r="C92">
-        <v>-0.07277057589236369</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.06942700797492188</v>
+      </c>
+      <c r="D92">
+        <v>0.3329911122607525</v>
+      </c>
+      <c r="E92">
+        <v>-0.04974518828604176</v>
+      </c>
+      <c r="F92">
+        <v>-0.02879698352709024</v>
+      </c>
+      <c r="G92">
+        <v>-0.004012670529748358</v>
+      </c>
+      <c r="H92">
+        <v>-0.0359255311640536</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06153797454438104</v>
+        <v>-0.08453577511604689</v>
       </c>
       <c r="C93">
-        <v>-0.06154934096213301</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.06570301149652227</v>
+      </c>
+      <c r="D93">
+        <v>0.3017530872372597</v>
+      </c>
+      <c r="E93">
+        <v>-0.03630185621211555</v>
+      </c>
+      <c r="F93">
+        <v>-0.04157651861522628</v>
+      </c>
+      <c r="G93">
+        <v>-0.0005824079820130716</v>
+      </c>
+      <c r="H93">
+        <v>0.007428003002419578</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1237927874050351</v>
+        <v>-0.1271643003929876</v>
       </c>
       <c r="C94">
-        <v>-0.07654743879800777</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.03524316096540706</v>
+      </c>
+      <c r="D94">
+        <v>-0.05454486893718412</v>
+      </c>
+      <c r="E94">
+        <v>0.02288280932536108</v>
+      </c>
+      <c r="F94">
+        <v>-0.03084265670810192</v>
+      </c>
+      <c r="G94">
+        <v>-0.04480660440861232</v>
+      </c>
+      <c r="H94">
+        <v>-0.08695945623361045</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1131167113832756</v>
+        <v>-0.1188757354875501</v>
       </c>
       <c r="C95">
-        <v>-0.05776120531785864</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.02212741677057359</v>
+      </c>
+      <c r="D95">
+        <v>-0.05685259645221329</v>
+      </c>
+      <c r="E95">
+        <v>0.01204347828949228</v>
+      </c>
+      <c r="F95">
+        <v>-0.02018754408004144</v>
+      </c>
+      <c r="G95">
+        <v>-0.01204131189245449</v>
+      </c>
+      <c r="H95">
+        <v>-0.02118979918877755</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.1984930846186066</v>
+        <v>-0.219890565821495</v>
       </c>
       <c r="C97">
-        <v>-0.0741572429854363</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.03110500676883932</v>
+      </c>
+      <c r="D97">
+        <v>0.02793073372185175</v>
+      </c>
+      <c r="E97">
+        <v>0.1477483779140946</v>
+      </c>
+      <c r="F97">
+        <v>0.8908567821524077</v>
+      </c>
+      <c r="G97">
+        <v>0.1984411090897715</v>
+      </c>
+      <c r="H97">
+        <v>-0.02438185864912913</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2371487429238285</v>
+        <v>-0.2676319668312642</v>
       </c>
       <c r="C98">
-        <v>-0.1201868797373827</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.05916884675378214</v>
+      </c>
+      <c r="D98">
+        <v>-0.05362902429686893</v>
+      </c>
+      <c r="E98">
+        <v>0.1615929936764771</v>
+      </c>
+      <c r="F98">
+        <v>-0.03293723794513688</v>
+      </c>
+      <c r="G98">
+        <v>-0.2618300661370586</v>
+      </c>
+      <c r="H98">
+        <v>0.1508391561781386</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.5503057045458297</v>
+        <v>-0.3420976921339766</v>
       </c>
       <c r="C99">
-        <v>0.8248785957543865</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.9272326979736021</v>
+      </c>
+      <c r="D99">
+        <v>0.08189024260544932</v>
+      </c>
+      <c r="E99">
+        <v>-0.04085039605071236</v>
+      </c>
+      <c r="F99">
+        <v>-0.04080997867107281</v>
+      </c>
+      <c r="G99">
+        <v>-0.01501960183160965</v>
+      </c>
+      <c r="H99">
+        <v>-0.04024938941918917</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.03639151249947663</v>
+        <v>-0.0440952833159703</v>
       </c>
       <c r="C101">
-        <v>-0.02971069752208613</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.02267815158405665</v>
+      </c>
+      <c r="D101">
+        <v>-0.01007940173669233</v>
+      </c>
+      <c r="E101">
+        <v>-0.03876812901164878</v>
+      </c>
+      <c r="F101">
+        <v>-0.0156871791806736</v>
+      </c>
+      <c r="G101">
+        <v>-0.01554680264770847</v>
+      </c>
+      <c r="H101">
+        <v>-0.0849628169468425</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
